--- a/stockList.xlsx
+++ b/stockList.xlsx
@@ -349,9 +349,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L34"/>
+  <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -726,6 +728,14 @@
         <v>5.83</v>
       </c>
     </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>300058</v>
+      </c>
+      <c r="C35">
+        <v>7.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stockList.xlsx
+++ b/stockList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>codelist</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>002400</t>
+  </si>
+  <si>
+    <t>2nd Version</t>
   </si>
 </sst>
 </file>
@@ -351,9 +354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -364,6 +365,9 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
       <c r="L1" t="s">
         <v>2</v>
       </c>
@@ -375,6 +379,9 @@
       <c r="C2">
         <v>0.83</v>
       </c>
+      <c r="G2">
+        <v>0.83</v>
+      </c>
       <c r="L2">
         <v>0.876</v>
       </c>
@@ -386,6 +393,9 @@
       <c r="C3">
         <v>7.02</v>
       </c>
+      <c r="G3">
+        <v>7.02</v>
+      </c>
       <c r="L3">
         <v>6.37</v>
       </c>
@@ -397,6 +407,9 @@
       <c r="C4">
         <v>4.8099999999999996</v>
       </c>
+      <c r="G4">
+        <v>4.8099999999999996</v>
+      </c>
       <c r="L4">
         <v>4.18</v>
       </c>
@@ -408,6 +421,9 @@
       <c r="C5">
         <v>4.6500000000000004</v>
       </c>
+      <c r="G5">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="L5">
         <v>4</v>
       </c>
@@ -419,6 +435,9 @@
       <c r="C6">
         <v>7.37</v>
       </c>
+      <c r="G6">
+        <v>7.37</v>
+      </c>
       <c r="L6">
         <v>6.33</v>
       </c>
@@ -430,6 +449,9 @@
       <c r="C7">
         <v>10.06</v>
       </c>
+      <c r="G7">
+        <v>10.06</v>
+      </c>
       <c r="L7">
         <v>9.3800000000000008</v>
       </c>
@@ -441,6 +463,9 @@
       <c r="C8">
         <v>9.32</v>
       </c>
+      <c r="G8">
+        <v>9.32</v>
+      </c>
       <c r="L8">
         <v>9.1</v>
       </c>
@@ -452,6 +477,9 @@
       <c r="C9">
         <v>4.4800000000000004</v>
       </c>
+      <c r="G9">
+        <v>4.4800000000000004</v>
+      </c>
       <c r="L9">
         <v>3.8</v>
       </c>
@@ -463,6 +491,9 @@
       <c r="C10">
         <v>1.639</v>
       </c>
+      <c r="G10">
+        <v>1.639</v>
+      </c>
       <c r="L10">
         <v>1.5740000000000001</v>
       </c>
@@ -474,6 +505,9 @@
       <c r="C11">
         <v>1.246</v>
       </c>
+      <c r="G11">
+        <v>1.246</v>
+      </c>
       <c r="L11">
         <v>1.2090000000000001</v>
       </c>
@@ -485,6 +519,9 @@
       <c r="C12">
         <v>6.5460000000000003</v>
       </c>
+      <c r="G12">
+        <v>6.5460000000000003</v>
+      </c>
       <c r="L12">
         <v>6.444</v>
       </c>
@@ -496,6 +533,9 @@
       <c r="C13">
         <v>1.0269999999999999</v>
       </c>
+      <c r="G13">
+        <v>1.0269999999999999</v>
+      </c>
       <c r="L13">
         <v>1.014</v>
       </c>
@@ -507,6 +547,9 @@
       <c r="C14">
         <v>3.2909999999999999</v>
       </c>
+      <c r="G14">
+        <v>3.2909999999999999</v>
+      </c>
       <c r="L14">
         <v>3.15</v>
       </c>
@@ -518,6 +561,9 @@
       <c r="C15">
         <v>5.2249999999999996</v>
       </c>
+      <c r="G15">
+        <v>5.2249999999999996</v>
+      </c>
       <c r="L15">
         <v>4.9969999999999999</v>
       </c>
@@ -529,6 +575,9 @@
       <c r="C16">
         <v>0.86</v>
       </c>
+      <c r="G16">
+        <v>0.86</v>
+      </c>
       <c r="L16">
         <v>0.79600000000000004</v>
       </c>
@@ -540,6 +589,9 @@
       <c r="C17">
         <v>1.0780000000000001</v>
       </c>
+      <c r="G17">
+        <v>1.0780000000000001</v>
+      </c>
       <c r="L17">
         <v>1.042</v>
       </c>
@@ -551,6 +603,9 @@
       <c r="C18">
         <v>1.0209999999999999</v>
       </c>
+      <c r="G18">
+        <v>1.0209999999999999</v>
+      </c>
       <c r="L18">
         <v>0.98799999999999999</v>
       </c>
@@ -562,6 +617,9 @@
       <c r="C19">
         <v>2.7669999999999999</v>
       </c>
+      <c r="G19">
+        <v>2.7669999999999999</v>
+      </c>
       <c r="L19">
         <v>2.7320000000000002</v>
       </c>
@@ -573,6 +631,9 @@
       <c r="C20">
         <v>2.3199999999999998</v>
       </c>
+      <c r="G20">
+        <v>2.3199999999999998</v>
+      </c>
       <c r="L20">
         <v>2.2080000000000002</v>
       </c>
@@ -584,6 +645,9 @@
       <c r="C21">
         <v>1.6839999999999999</v>
       </c>
+      <c r="G21">
+        <v>1.6839999999999999</v>
+      </c>
       <c r="L21">
         <v>1.587</v>
       </c>
@@ -595,6 +659,9 @@
       <c r="C22">
         <v>6.73</v>
       </c>
+      <c r="G22">
+        <v>6.73</v>
+      </c>
       <c r="L22">
         <v>6.6050000000000004</v>
       </c>
@@ -606,6 +673,9 @@
       <c r="C23">
         <v>3.1709999999999998</v>
       </c>
+      <c r="G23">
+        <v>3.1709999999999998</v>
+      </c>
       <c r="L23">
         <v>2.99</v>
       </c>
@@ -617,6 +687,9 @@
       <c r="C24">
         <v>1.1990000000000001</v>
       </c>
+      <c r="G24">
+        <v>1.1990000000000001</v>
+      </c>
       <c r="L24">
         <v>1.169</v>
       </c>
@@ -628,6 +701,9 @@
       <c r="C25">
         <v>1.708</v>
       </c>
+      <c r="G25">
+        <v>1.708</v>
+      </c>
       <c r="L25">
         <v>1.6040000000000001</v>
       </c>
@@ -639,6 +715,9 @@
       <c r="C26">
         <v>1.724</v>
       </c>
+      <c r="G26">
+        <v>1.724</v>
+      </c>
       <c r="L26">
         <v>1.611</v>
       </c>
@@ -650,6 +729,9 @@
       <c r="C27">
         <v>2.5259999999999998</v>
       </c>
+      <c r="G27">
+        <v>2.5259999999999998</v>
+      </c>
       <c r="L27">
         <v>2.202</v>
       </c>
@@ -661,6 +743,9 @@
       <c r="C28">
         <v>1.1060000000000001</v>
       </c>
+      <c r="G28">
+        <v>1.1060000000000001</v>
+      </c>
       <c r="L28">
         <v>1.133</v>
       </c>
@@ -672,6 +757,9 @@
       <c r="C29">
         <v>2.2370000000000001</v>
       </c>
+      <c r="G29">
+        <v>2.2370000000000001</v>
+      </c>
       <c r="L29">
         <v>2.2040000000000002</v>
       </c>
@@ -683,6 +771,9 @@
       <c r="C30">
         <v>3.7730000000000001</v>
       </c>
+      <c r="G30">
+        <v>3.7730000000000001</v>
+      </c>
       <c r="L30">
         <v>3.532</v>
       </c>
@@ -694,6 +785,9 @@
       <c r="C31">
         <v>2.1480000000000001</v>
       </c>
+      <c r="G31">
+        <v>2.1480000000000001</v>
+      </c>
       <c r="L31">
         <v>2.0089999999999999</v>
       </c>
@@ -705,6 +799,9 @@
       <c r="C32">
         <v>1.72</v>
       </c>
+      <c r="G32">
+        <v>1.72</v>
+      </c>
       <c r="L32">
         <v>1.6870000000000001</v>
       </c>
@@ -716,6 +813,9 @@
       <c r="C33">
         <v>1.1499999999999999</v>
       </c>
+      <c r="G33">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="L33">
         <v>1.0249999999999999</v>
       </c>
@@ -727,12 +827,18 @@
       <c r="C34">
         <v>5.83</v>
       </c>
+      <c r="G34">
+        <v>5.83</v>
+      </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>300058</v>
       </c>
       <c r="C35">
+        <v>7.34</v>
+      </c>
+      <c r="G35">
         <v>7.34</v>
       </c>
     </row>

--- a/stockList.xlsx
+++ b/stockList.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -352,494 +352,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L35"/>
+  <dimension ref="B1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="10.69140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>512660</v>
       </c>
       <c r="C2">
         <v>0.83</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.83</v>
       </c>
-      <c r="L2">
+      <c r="J2">
         <v>0.876</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>601328</v>
       </c>
       <c r="C3">
         <v>7.02</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7.02</v>
       </c>
-      <c r="L3">
+      <c r="J3">
         <v>6.37</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>601818</v>
       </c>
       <c r="C4">
         <v>4.8099999999999996</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4.8099999999999996</v>
       </c>
-      <c r="L4">
+      <c r="J4">
         <v>4.18</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>601988</v>
       </c>
       <c r="C5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4.6500000000000004</v>
       </c>
-      <c r="L5">
+      <c r="J5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>601998</v>
       </c>
       <c r="C6">
         <v>7.37</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>7.37</v>
       </c>
-      <c r="L6">
+      <c r="J6">
         <v>6.33</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>600015</v>
       </c>
       <c r="C7">
         <v>10.06</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10.06</v>
       </c>
-      <c r="L7">
+      <c r="J7">
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>600016</v>
       </c>
       <c r="C8">
         <v>9.32</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>9.32</v>
       </c>
-      <c r="L8">
+      <c r="J8">
         <v>9.1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>601288</v>
       </c>
       <c r="C9">
         <v>4.4800000000000004</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>4.4800000000000004</v>
       </c>
-      <c r="L9">
+      <c r="J9">
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>159929</v>
       </c>
       <c r="C10">
         <v>1.639</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.639</v>
       </c>
-      <c r="L10">
+      <c r="J10">
         <v>1.5740000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>159903</v>
       </c>
       <c r="C11">
         <v>1.246</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.246</v>
       </c>
-      <c r="L11">
+      <c r="J11">
         <v>1.2090000000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>159922</v>
       </c>
       <c r="C12">
         <v>6.5460000000000003</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6.5460000000000003</v>
       </c>
-      <c r="L12">
+      <c r="J12">
         <v>6.444</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>510810</v>
       </c>
       <c r="C13">
         <v>1.0269999999999999</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.0269999999999999</v>
       </c>
-      <c r="L13">
+      <c r="J13">
         <v>1.014</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>510880</v>
       </c>
       <c r="C14">
         <v>3.2909999999999999</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.2909999999999999</v>
       </c>
-      <c r="L14">
+      <c r="J14">
         <v>3.15</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>510150</v>
       </c>
       <c r="C15">
         <v>5.2249999999999996</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>5.2249999999999996</v>
       </c>
-      <c r="L15">
+      <c r="J15">
         <v>4.9969999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>510410</v>
       </c>
       <c r="C16">
         <v>0.86</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.86</v>
       </c>
-      <c r="L16">
+      <c r="J16">
         <v>0.79600000000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>512880</v>
       </c>
       <c r="C17">
         <v>1.0780000000000001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.0780000000000001</v>
       </c>
-      <c r="L17">
+      <c r="J17">
         <v>1.042</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>512000</v>
       </c>
       <c r="C18">
         <v>1.0209999999999999</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.0209999999999999</v>
       </c>
-      <c r="L18">
+      <c r="J18">
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>518880</v>
       </c>
       <c r="C19">
         <v>2.7669999999999999</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.7669999999999999</v>
       </c>
-      <c r="L19">
+      <c r="J19">
         <v>2.7320000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>513100</v>
       </c>
       <c r="C20">
         <v>2.3199999999999998</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2.3199999999999998</v>
       </c>
-      <c r="L20">
+      <c r="J20">
         <v>2.2080000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>513500</v>
       </c>
       <c r="C21">
         <v>1.6839999999999999</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.6839999999999999</v>
       </c>
-      <c r="L21">
+      <c r="J21">
         <v>1.587</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>510500</v>
       </c>
       <c r="C22">
         <v>6.73</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>6.73</v>
       </c>
-      <c r="L22">
+      <c r="J22">
         <v>6.6050000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <v>510050</v>
       </c>
       <c r="C23">
         <v>3.1709999999999998</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>3.1709999999999998</v>
       </c>
-      <c r="L23">
+      <c r="J23">
         <v>2.99</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>513030</v>
       </c>
       <c r="C24">
         <v>1.1990000000000001</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>1.1990000000000001</v>
       </c>
-      <c r="L24">
+      <c r="J24">
         <v>1.169</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>159920</v>
       </c>
       <c r="C25">
         <v>1.708</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>1.708</v>
       </c>
-      <c r="L25">
+      <c r="J25">
         <v>1.6040000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>512010</v>
       </c>
       <c r="C26">
         <v>1.724</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>1.724</v>
       </c>
-      <c r="L26">
+      <c r="J26">
         <v>1.611</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27">
         <v>159928</v>
       </c>
       <c r="C27">
         <v>2.5259999999999998</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2.5259999999999998</v>
       </c>
-      <c r="L27">
+      <c r="J27">
         <v>2.202</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28">
         <v>159939</v>
       </c>
       <c r="C28">
         <v>1.1060000000000001</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.1060000000000001</v>
       </c>
-      <c r="L28">
+      <c r="J28">
         <v>1.133</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29">
         <v>512070</v>
       </c>
       <c r="C29">
         <v>2.2370000000000001</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.2370000000000001</v>
       </c>
-      <c r="L29">
+      <c r="J29">
         <v>2.2040000000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30">
         <v>510180</v>
       </c>
       <c r="C30">
         <v>3.7730000000000001</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>3.7730000000000001</v>
       </c>
-      <c r="L30">
+      <c r="J30">
         <v>3.532</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31">
         <v>510170</v>
       </c>
       <c r="C31">
         <v>2.1480000000000001</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.1480000000000001</v>
       </c>
-      <c r="L31">
+      <c r="J31">
         <v>2.0089999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32">
         <v>159915</v>
       </c>
       <c r="C32">
         <v>1.72</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1.72</v>
       </c>
-      <c r="L32">
+      <c r="J32">
         <v>1.6870000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33">
         <v>512800</v>
       </c>
       <c r="C33">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L33">
+      <c r="J33">
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C34">
         <v>5.83</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>5.83</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35">
         <v>300058</v>
       </c>
       <c r="C35">
         <v>7.34</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>7.34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>159949</v>
+      </c>
+      <c r="C36">
+        <v>0.66300000000000003</v>
       </c>
     </row>
   </sheetData>
